--- a/teaching/traditional_assets/database/data/south_korea/south_korea_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09959999999999999</v>
+        <v>0.1034</v>
       </c>
       <c r="E2">
-        <v>0.1775</v>
+        <v>0.1176</v>
       </c>
       <c r="F2">
-        <v>0.0374</v>
+        <v>0.003840000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005052795075665222</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003724118101707447</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10465.1</v>
+        <v>10685.7</v>
       </c>
       <c r="L2">
-        <v>0.275471310720246</v>
+        <v>0.2635730618104322</v>
       </c>
       <c r="M2">
-        <v>3680.8442</v>
+        <v>3786.9389</v>
       </c>
       <c r="N2">
-        <v>0.06470960664527754</v>
+        <v>0.07083050717481408</v>
       </c>
       <c r="O2">
-        <v>0.3517256595732482</v>
+        <v>0.3543931515951224</v>
       </c>
       <c r="P2">
-        <v>2527.1162</v>
+        <v>3005.8819</v>
       </c>
       <c r="Q2">
-        <v>0.04442695380828902</v>
+        <v>0.05622169913662821</v>
       </c>
       <c r="R2">
-        <v>0.2414803680805725</v>
+        <v>0.2812994843575994</v>
       </c>
       <c r="S2">
-        <v>1153.728</v>
+        <v>781.0569999999999</v>
       </c>
       <c r="T2">
-        <v>0.3134411393994889</v>
+        <v>0.2062502249508171</v>
       </c>
       <c r="U2">
-        <v>47581.7</v>
+        <v>52434.3</v>
       </c>
       <c r="V2">
-        <v>0.8364910121742187</v>
+        <v>0.9807256363065044</v>
       </c>
       <c r="W2">
-        <v>0.08139642064066011</v>
+        <v>0.09089691771384896</v>
       </c>
       <c r="X2">
-        <v>0.1606652809544533</v>
+        <v>0.1801609094600408</v>
       </c>
       <c r="Y2">
-        <v>-0.07926886031379315</v>
+        <v>-0.0892639917461918</v>
       </c>
       <c r="Z2">
-        <v>0.0756303200282511</v>
+        <v>0.07657320745180567</v>
       </c>
       <c r="AA2">
-        <v>0.00011073984648523</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04148902295111968</v>
+        <v>0.03615114117842917</v>
       </c>
       <c r="AC2">
-        <v>-0.04148902295111968</v>
+        <v>-0.03615114117842917</v>
       </c>
       <c r="AD2">
-        <v>450595</v>
+        <v>513330.5</v>
       </c>
       <c r="AE2">
-        <v>1119.226628172467</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>451714.2266281725</v>
+        <v>513330.5</v>
       </c>
       <c r="AG2">
-        <v>404132.5266281725</v>
+        <v>460896.2</v>
       </c>
       <c r="AH2">
-        <v>0.8881579510408726</v>
+        <v>0.9056717654504192</v>
       </c>
       <c r="AI2">
-        <v>0.7715779341500418</v>
+        <v>0.7737850916616307</v>
       </c>
       <c r="AJ2">
-        <v>0.8766146509018716</v>
+        <v>0.896055882930471</v>
       </c>
       <c r="AK2">
-        <v>0.7513706281788839</v>
+        <v>0.7543709355455184</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1083.682058682059</v>
-      </c>
-      <c r="AP2">
-        <v>971.9396984804533</v>
       </c>
     </row>
     <row r="3">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0315</v>
+        <v>0.194</v>
       </c>
       <c r="E3">
-        <v>0.104</v>
+        <v>0.0535</v>
       </c>
       <c r="F3">
-        <v>0.024</v>
+        <v>0.0345</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +731,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007915836088394863</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005801784955848608</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1387.5</v>
+        <v>1221.9</v>
       </c>
       <c r="L3">
-        <v>0.261970394985273</v>
+        <v>0.2256468024597884</v>
       </c>
       <c r="M3">
-        <v>350.6672</v>
+        <v>424.7525</v>
       </c>
       <c r="N3">
-        <v>0.05952592089628246</v>
+        <v>0.07078146611341632</v>
       </c>
       <c r="O3">
-        <v>0.2527331171171171</v>
+        <v>0.3476164170554055</v>
       </c>
       <c r="P3">
-        <v>332.4672</v>
+        <v>424.7525</v>
       </c>
       <c r="Q3">
-        <v>0.0564364624002716</v>
+        <v>0.07078146611341632</v>
       </c>
       <c r="R3">
-        <v>0.239616</v>
+        <v>0.3476164170554055</v>
       </c>
       <c r="S3">
-        <v>18.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05190106174743458</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>10526.9</v>
+        <v>13552.8</v>
       </c>
       <c r="V3">
-        <v>1.78694618910202</v>
+        <v>2.258461230815378</v>
       </c>
       <c r="W3">
-        <v>0.07611122386847979</v>
+        <v>0.06613909833447905</v>
       </c>
       <c r="X3">
-        <v>0.4388905925273215</v>
+        <v>0.5247966542314239</v>
       </c>
       <c r="Y3">
-        <v>-0.3627793686588417</v>
+        <v>-0.4586575558969448</v>
       </c>
       <c r="Z3">
-        <v>0.03817440574856069</v>
+        <v>0.03745892737321961</v>
       </c>
       <c r="AA3">
-        <v>0.0002214796929704601</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04128966388488825</v>
+        <v>0.03601525220688034</v>
       </c>
       <c r="AC3">
-        <v>-0.04106818419191779</v>
+        <v>-0.03601525220688034</v>
       </c>
       <c r="AD3">
-        <v>136204.5</v>
+        <v>157470</v>
       </c>
       <c r="AE3">
-        <v>146.3728287071273</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>136350.8728287071</v>
+        <v>157470</v>
       </c>
       <c r="AG3">
-        <v>125823.9728287071</v>
+        <v>143917.2</v>
       </c>
       <c r="AH3">
-        <v>0.95858462854258</v>
+        <v>0.9632907141271015</v>
       </c>
       <c r="AI3">
-        <v>0.8778205258662473</v>
+        <v>0.8797231277182338</v>
       </c>
       <c r="AJ3">
-        <v>0.9552746367896903</v>
+        <v>0.959972144791056</v>
       </c>
       <c r="AK3">
-        <v>0.8689382497402163</v>
+        <v>0.8698704779243104</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1912.984550561798</v>
-      </c>
-      <c r="AP3">
-        <v>1767.190629616673</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hana Financial Group Inc. (KOSE:A086790)</t>
+          <t>Woori Financial Group Inc. (KOSE:A316140)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +841,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0842</v>
+        <v>0.0868</v>
       </c>
       <c r="E4">
-        <v>0.204</v>
+        <v>0.148</v>
       </c>
       <c r="F4">
-        <v>0.08500000000000001</v>
+        <v>-0.00185</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -874,85 +862,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1987.4</v>
+        <v>1157.2</v>
       </c>
       <c r="L4">
-        <v>0.2601036540676369</v>
+        <v>0.1949756533167091</v>
       </c>
       <c r="M4">
-        <v>681.5</v>
+        <v>1160.5</v>
       </c>
       <c r="N4">
-        <v>0.07111329082883767</v>
+        <v>0.179688467731946</v>
       </c>
       <c r="O4">
-        <v>0.3429103351112006</v>
+        <v>1.002851711026616</v>
       </c>
       <c r="P4">
-        <v>431.3</v>
+        <v>508.7</v>
       </c>
       <c r="Q4">
-        <v>0.04500537393173542</v>
+        <v>0.07876563854824725</v>
       </c>
       <c r="R4">
-        <v>0.2170172084130019</v>
+        <v>0.4395955755271344</v>
       </c>
       <c r="S4">
-        <v>250.2</v>
+        <v>651.8</v>
       </c>
       <c r="T4">
-        <v>0.3671313279530448</v>
+        <v>0.561654459284791</v>
       </c>
       <c r="U4">
-        <v>15185.3</v>
+        <v>7570.6</v>
       </c>
       <c r="V4">
-        <v>1.584558554986278</v>
+        <v>1.172209835253314</v>
       </c>
       <c r="W4">
-        <v>0.08550715284500376</v>
+        <v>0.06654705219331539</v>
       </c>
       <c r="X4">
-        <v>0.1680934967768168</v>
+        <v>0.1757746341999422</v>
       </c>
       <c r="Y4">
-        <v>-0.08258634393181305</v>
+        <v>-0.1092275820066268</v>
       </c>
       <c r="Z4">
-        <v>0.09871911151766033</v>
+        <v>0.1016458297653708</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04148464439201134</v>
+        <v>0.036131768390056</v>
       </c>
       <c r="AC4">
-        <v>-0.04148464439201134</v>
+        <v>-0.036131768390056</v>
       </c>
       <c r="AD4">
-        <v>70447.39999999999</v>
+        <v>48900.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>70447.39999999999</v>
+        <v>48900.1</v>
       </c>
       <c r="AG4">
-        <v>55262.09999999999</v>
+        <v>41329.5</v>
       </c>
       <c r="AH4">
-        <v>0.8802547022580085</v>
+        <v>0.8833349892067162</v>
       </c>
       <c r="AI4">
-        <v>0.7440625943975141</v>
+        <v>0.6847698533839325</v>
       </c>
       <c r="AJ4">
-        <v>0.8522131099507443</v>
+        <v>0.8648528183912664</v>
       </c>
       <c r="AK4">
-        <v>0.6951723461238003</v>
+        <v>0.6473878609783147</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -969,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JB Financial Group Co.,Ltd (KOSE:A175330)</t>
+          <t>JB Financial Group Co., Ltd. (KOSE:A175330)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,13 +966,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.162</v>
+        <v>0.131</v>
       </c>
       <c r="E5">
-        <v>0.337</v>
+        <v>-0.103</v>
       </c>
       <c r="F5">
-        <v>0.008</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,85 +987,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>271</v>
+        <v>297.1</v>
       </c>
       <c r="L5">
-        <v>0.2027077567506919</v>
+        <v>0.2102767357916342</v>
       </c>
       <c r="M5">
-        <v>29.778</v>
+        <v>50.1294</v>
       </c>
       <c r="N5">
-        <v>0.03183450930083387</v>
+        <v>0.04976610741586419</v>
       </c>
       <c r="O5">
-        <v>0.1098819188191882</v>
+        <v>0.1687290474587681</v>
       </c>
       <c r="P5">
-        <v>29.55</v>
+        <v>50.1294</v>
       </c>
       <c r="Q5">
-        <v>0.03159076330981398</v>
+        <v>0.04976610741586419</v>
       </c>
       <c r="R5">
-        <v>0.1090405904059041</v>
+        <v>0.1687290474587681</v>
       </c>
       <c r="S5">
-        <v>0.2280000000000015</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.007656659278662151</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1966.4</v>
+        <v>2340.1</v>
       </c>
       <c r="V5">
-        <v>2.102202266410092</v>
+        <v>2.32314107018763</v>
       </c>
       <c r="W5">
-        <v>0.1100418240142933</v>
+        <v>0.1033894766146993</v>
       </c>
       <c r="X5">
-        <v>0.1652968526756236</v>
+        <v>0.1845471847201393</v>
       </c>
       <c r="Y5">
-        <v>-0.05525502866133032</v>
+        <v>-0.08115770810543994</v>
       </c>
       <c r="Z5">
-        <v>0.1714369982816548</v>
+        <v>0.1864254707147475</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04148620346313442</v>
+        <v>0.03614483028868434</v>
       </c>
       <c r="AC5">
-        <v>-0.04148620346313442</v>
+        <v>-0.03614483028868434</v>
       </c>
       <c r="AD5">
-        <v>6723.6</v>
+        <v>8099.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>6723.6</v>
+        <v>8099.5</v>
       </c>
       <c r="AG5">
-        <v>4757.200000000001</v>
+        <v>5759.4</v>
       </c>
       <c r="AH5">
-        <v>0.8778691735213475</v>
+        <v>0.8893903456757588</v>
       </c>
       <c r="AI5">
-        <v>0.6803885853066182</v>
+        <v>0.7041696371129001</v>
       </c>
       <c r="AJ5">
-        <v>0.8356814109545727</v>
+        <v>0.8511386643415549</v>
       </c>
       <c r="AK5">
-        <v>0.6009904492394765</v>
+        <v>0.6286113445607449</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1094,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Woori Financial Group Inc. (KOSE:A316140)</t>
+          <t>Hana Financial Group Inc. (KOSE:A086790)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,10 +1091,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.123</v>
+        <v>0.0225</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>0.184</v>
+      </c>
+      <c r="F6">
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1121,85 +1112,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1497.8</v>
+        <v>2108.5</v>
       </c>
       <c r="L6">
-        <v>0.2628918454031663</v>
+        <v>0.2511733733590641</v>
       </c>
       <c r="M6">
-        <v>638.7</v>
+        <v>555.157</v>
       </c>
       <c r="N6">
-        <v>0.08813058836516173</v>
+        <v>0.06005462884835897</v>
       </c>
       <c r="O6">
-        <v>0.4264254239551342</v>
+        <v>0.2632947593075646</v>
       </c>
       <c r="P6">
-        <v>485.1</v>
+        <v>555.1</v>
       </c>
       <c r="Q6">
-        <v>0.06693619604812893</v>
+        <v>0.06004846281993034</v>
       </c>
       <c r="R6">
-        <v>0.323875016691147</v>
+        <v>0.2632677258714726</v>
       </c>
       <c r="S6">
-        <v>153.6</v>
+        <v>0.05700000000001637</v>
       </c>
       <c r="T6">
-        <v>0.2404884922498826</v>
+        <v>0.0001026736580823377</v>
       </c>
       <c r="U6">
-        <v>6998.2</v>
+        <v>13300.6</v>
       </c>
       <c r="V6">
-        <v>0.9656419030798101</v>
+        <v>1.438804872244218</v>
       </c>
       <c r="W6">
-        <v>0.0766071492504488</v>
+        <v>0.08970775311541392</v>
       </c>
       <c r="X6">
-        <v>0.1560337092332829</v>
+        <v>0.193987624075191</v>
       </c>
       <c r="Y6">
-        <v>-0.07942655998283411</v>
+        <v>-0.1042798709597771</v>
       </c>
       <c r="Z6">
-        <v>0.1085533335365668</v>
+        <v>0.1066739522708212</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04149184243910495</v>
+        <v>0.03615745206817401</v>
       </c>
       <c r="AC6">
-        <v>-0.04149184243910495</v>
+        <v>-0.03615745206817401</v>
       </c>
       <c r="AD6">
-        <v>48176.9</v>
+        <v>78998.89999999999</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>48176.9</v>
+        <v>78998.89999999999</v>
       </c>
       <c r="AG6">
-        <v>41178.7</v>
+        <v>65698.29999999999</v>
       </c>
       <c r="AH6">
-        <v>0.869240998049585</v>
+        <v>0.8952416676204712</v>
       </c>
       <c r="AI6">
-        <v>0.703999964929252</v>
+        <v>0.7451953099206685</v>
       </c>
       <c r="AJ6">
-        <v>0.8503445470295855</v>
+        <v>0.8766494312306101</v>
       </c>
       <c r="AK6">
-        <v>0.6702818756114195</v>
+        <v>0.7086400231257766</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1225,10 +1216,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0723</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E7">
-        <v>0.101</v>
+        <v>0.0872</v>
+      </c>
+      <c r="F7">
+        <v>-0.0222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1237,103 +1231,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008977677340108067</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006544022010007098</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>2844.1</v>
+        <v>2969.9</v>
       </c>
       <c r="L7">
-        <v>0.3053313007257268</v>
+        <v>0.3020800488226619</v>
       </c>
       <c r="M7">
-        <v>1093.399</v>
+        <v>842.8</v>
       </c>
       <c r="N7">
-        <v>0.06334542231285738</v>
+        <v>0.05539780196666141</v>
       </c>
       <c r="O7">
-        <v>0.3844446397805985</v>
+        <v>0.283780598673356</v>
       </c>
       <c r="P7">
-        <v>612.1990000000001</v>
+        <v>713.6</v>
       </c>
       <c r="Q7">
-        <v>0.03546738582576807</v>
+        <v>0.04690540043119314</v>
       </c>
       <c r="R7">
-        <v>0.2152522766428747</v>
+        <v>0.240277450419206</v>
       </c>
       <c r="S7">
-        <v>481.2</v>
+        <v>129.1999999999999</v>
       </c>
       <c r="T7">
-        <v>0.4400955186533004</v>
+        <v>0.153298528713811</v>
       </c>
       <c r="U7">
-        <v>8186</v>
+        <v>8290.4</v>
       </c>
       <c r="V7">
-        <v>0.4742510529578411</v>
+        <v>0.5449334805700162</v>
       </c>
       <c r="W7">
-        <v>0.09013465847327905</v>
+        <v>0.09226845120481179</v>
       </c>
       <c r="X7">
-        <v>0.1406779860922828</v>
+        <v>0.1662674643350106</v>
       </c>
       <c r="Y7">
-        <v>-0.05054332761900378</v>
+        <v>-0.07399901313019884</v>
       </c>
       <c r="Z7">
-        <v>0.08737924524827981</v>
+        <v>0.07987329462412064</v>
       </c>
       <c r="AA7">
-        <v>0.0005718117041225513</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04263023679254332</v>
+        <v>0.0373608292187612</v>
       </c>
       <c r="AC7">
-        <v>-0.04205842508842077</v>
+        <v>-0.0373608292187612</v>
       </c>
       <c r="AD7">
-        <v>98785.60000000001</v>
+        <v>107453.7</v>
       </c>
       <c r="AE7">
-        <v>499.373655561807</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>99284.97365556181</v>
+        <v>107453.7</v>
       </c>
       <c r="AG7">
-        <v>91098.97365556181</v>
+        <v>99163.3</v>
       </c>
       <c r="AH7">
-        <v>0.8518960864199049</v>
+        <v>0.8759767272940709</v>
       </c>
       <c r="AI7">
-        <v>0.7405459324593747</v>
+        <v>0.7314597173238685</v>
       </c>
       <c r="AJ7">
-        <v>0.8407076400359567</v>
+        <v>0.8669871276455298</v>
       </c>
       <c r="AK7">
-        <v>0.7236741183974921</v>
+        <v>0.7153983725877932</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>538.341144414169</v>
-      </c>
-      <c r="AP7">
-        <v>496.4521725098737</v>
       </c>
     </row>
     <row r="8">
@@ -1353,13 +1341,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="E8">
-        <v>0.151</v>
+        <v>0.17</v>
       </c>
       <c r="F8">
-        <v>0.0508</v>
+        <v>-0.00132</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1368,103 +1356,97 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007629571002389094</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.005513446804263272</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2477.3</v>
+        <v>2931.1</v>
       </c>
       <c r="L8">
-        <v>0.2846326190612972</v>
+        <v>0.3068411410625491</v>
       </c>
       <c r="M8">
-        <v>886.8</v>
+        <v>753.6</v>
       </c>
       <c r="N8">
-        <v>0.05554755178612814</v>
+        <v>0.04849296028416257</v>
       </c>
       <c r="O8">
-        <v>0.357970370968393</v>
+        <v>0.2571048411859029</v>
       </c>
       <c r="P8">
-        <v>636.5</v>
+        <v>753.6</v>
       </c>
       <c r="Q8">
-        <v>0.03986921144775661</v>
+        <v>0.04849296028416257</v>
       </c>
       <c r="R8">
-        <v>0.2569329511968675</v>
+        <v>0.2571048411859029</v>
       </c>
       <c r="S8">
-        <v>250.3</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.2822507893549842</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>4718.9</v>
+        <v>7379.8</v>
       </c>
       <c r="V8">
-        <v>0.2955833808339649</v>
+        <v>0.4748783815088415</v>
       </c>
       <c r="W8">
-        <v>0.07728568843631645</v>
+        <v>0.092086082312284</v>
       </c>
       <c r="X8">
-        <v>0.1394980277870612</v>
+        <v>0.1694510377566659</v>
       </c>
       <c r="Y8">
-        <v>-0.06221233935074474</v>
+        <v>-0.07736495544438186</v>
       </c>
       <c r="Z8">
-        <v>0.0729653901642639</v>
+        <v>0.08154939148488614</v>
       </c>
       <c r="AA8">
-        <v>0.0004022907972229836</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04262921578584439</v>
+        <v>0.03737000828267786</v>
       </c>
       <c r="AC8">
-        <v>-0.04222692498862141</v>
+        <v>-0.03737000828267786</v>
       </c>
       <c r="AD8">
-        <v>90257</v>
+        <v>112408.3</v>
       </c>
       <c r="AE8">
-        <v>473.4801439035326</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>90730.48014390354</v>
+        <v>112408.3</v>
       </c>
       <c r="AG8">
-        <v>86011.58014390354</v>
+        <v>105028.5</v>
       </c>
       <c r="AH8">
-        <v>0.8503709354211891</v>
+        <v>0.8785419468896519</v>
       </c>
       <c r="AI8">
-        <v>0.7373537554601981</v>
+        <v>0.7565756307752779</v>
       </c>
       <c r="AJ8">
-        <v>0.8434469272906262</v>
+        <v>0.8711077234676604</v>
       </c>
       <c r="AK8">
-        <v>0.7268796354674152</v>
+        <v>0.7438526636509856</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>560.2545003103662</v>
-      </c>
-      <c r="AP8">
-        <v>533.9018010174025</v>
       </c>
     </row>
   </sheetData>
